--- a/docu/v2/Projektplan_GruS_IhnH_V2.xlsx
+++ b/docu/v2/Projektplan_GruS_IhnH_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verih\Documents\Schule\HTL\4_Klasse\HWEP\HWEP-Sequencer\docu\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58C6A89-0475-4BA8-9995-9FCBA430B4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E4FA52-1E91-4BDA-8DDD-5AA19AFEE332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1061,36 +1061,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1112,6 +1082,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AZ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AZ38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1487,48 +1487,48 @@
       <c r="N3" s="72"/>
       <c r="O3" s="72"/>
       <c r="P3" s="73"/>
-      <c r="Q3" s="88" t="s">
+      <c r="Q3" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="89"/>
-      <c r="AC3" s="88" t="s">
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="105"/>
+      <c r="AA3" s="105"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="89"/>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="89"/>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="89"/>
-      <c r="AI3" s="89"/>
-      <c r="AJ3" s="89"/>
-      <c r="AK3" s="89"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="89"/>
-      <c r="AN3" s="89"/>
-      <c r="AO3" s="88" t="s">
+      <c r="AD3" s="105"/>
+      <c r="AE3" s="105"/>
+      <c r="AF3" s="105"/>
+      <c r="AG3" s="105"/>
+      <c r="AH3" s="105"/>
+      <c r="AI3" s="105"/>
+      <c r="AJ3" s="105"/>
+      <c r="AK3" s="105"/>
+      <c r="AL3" s="105"/>
+      <c r="AM3" s="105"/>
+      <c r="AN3" s="105"/>
+      <c r="AO3" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="AP3" s="89"/>
-      <c r="AQ3" s="89"/>
-      <c r="AR3" s="89"/>
-      <c r="AS3" s="89"/>
-      <c r="AT3" s="89"/>
-      <c r="AU3" s="89"/>
-      <c r="AV3" s="89"/>
-      <c r="AW3" s="89"/>
-      <c r="AX3" s="89"/>
-      <c r="AY3" s="89"/>
-      <c r="AZ3" s="90"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="105"/>
+      <c r="AU3" s="105"/>
+      <c r="AV3" s="105"/>
+      <c r="AW3" s="105"/>
+      <c r="AX3" s="105"/>
+      <c r="AY3" s="105"/>
+      <c r="AZ3" s="106"/>
     </row>
     <row r="4" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
@@ -1543,73 +1543,73 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="92" t="s">
+      <c r="J4" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="93"/>
+      <c r="K4" s="98"/>
       <c r="L4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="94" t="s">
+      <c r="M4" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="96" t="s">
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="100"/>
+      <c r="Q4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="96" t="s">
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="95"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="95"/>
-      <c r="Y4" s="91" t="s">
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="91"/>
-      <c r="AA4" s="91"/>
-      <c r="AB4" s="91"/>
-      <c r="AC4" s="91" t="s">
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102"/>
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="91"/>
-      <c r="AE4" s="91"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91" t="s">
+      <c r="AD4" s="102"/>
+      <c r="AE4" s="102"/>
+      <c r="AF4" s="102"/>
+      <c r="AG4" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="91"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="91" t="s">
+      <c r="AH4" s="102"/>
+      <c r="AI4" s="102"/>
+      <c r="AJ4" s="102"/>
+      <c r="AK4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="91"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91" t="s">
+      <c r="AL4" s="102"/>
+      <c r="AM4" s="102"/>
+      <c r="AN4" s="102"/>
+      <c r="AO4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="91"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="91"/>
-      <c r="AS4" s="91" t="s">
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="102"/>
+      <c r="AR4" s="102"/>
+      <c r="AS4" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91" t="s">
+      <c r="AT4" s="102"/>
+      <c r="AU4" s="102"/>
+      <c r="AV4" s="102"/>
+      <c r="AW4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="91"/>
-      <c r="AZ4" s="97"/>
+      <c r="AX4" s="102"/>
+      <c r="AY4" s="102"/>
+      <c r="AZ4" s="103"/>
     </row>
     <row r="5" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B5" s="75">
@@ -1884,7 +1884,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="102" t="s">
+      <c r="R9" s="92" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="16"/>
@@ -2006,9 +2006,9 @@
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
-      <c r="R11" s="105"/>
-      <c r="S11" s="105"/>
-      <c r="T11" s="105"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
@@ -2070,10 +2070,10 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="15"/>
-      <c r="U12" s="105"/>
-      <c r="V12" s="105"/>
-      <c r="W12" s="105"/>
-      <c r="X12" s="105"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
@@ -2137,10 +2137,10 @@
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="15"/>
-      <c r="Y13" s="105"/>
-      <c r="Z13" s="105"/>
-      <c r="AA13" s="105"/>
-      <c r="AB13" s="105"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
@@ -2195,38 +2195,38 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
       <c r="W14" s="15"/>
       <c r="X14" s="15"/>
       <c r="Y14" s="15"/>
       <c r="Z14" s="15"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="15"/>
-      <c r="AC14" s="105"/>
-      <c r="AD14" s="105"/>
-      <c r="AE14" s="105"/>
-      <c r="AF14" s="105"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="95"/>
+      <c r="AF14" s="95"/>
       <c r="AG14" s="15"/>
-      <c r="AH14" s="100"/>
-      <c r="AI14" s="100"/>
-      <c r="AJ14" s="100"/>
-      <c r="AK14" s="101"/>
-      <c r="AL14" s="101"/>
-      <c r="AM14" s="101"/>
-      <c r="AN14" s="101"/>
-      <c r="AO14" s="101"/>
-      <c r="AP14" s="101"/>
-      <c r="AQ14" s="101"/>
-      <c r="AR14" s="101"/>
-      <c r="AS14" s="101"/>
-      <c r="AT14" s="101"/>
-      <c r="AU14" s="101"/>
-      <c r="AV14" s="101"/>
-      <c r="AW14" s="101"/>
-      <c r="AX14" s="101"/>
-      <c r="AY14" s="101"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="90"/>
+      <c r="AJ14" s="90"/>
+      <c r="AK14" s="91"/>
+      <c r="AL14" s="91"/>
+      <c r="AM14" s="91"/>
+      <c r="AN14" s="91"/>
+      <c r="AO14" s="91"/>
+      <c r="AP14" s="91"/>
+      <c r="AQ14" s="91"/>
+      <c r="AR14" s="91"/>
+      <c r="AS14" s="91"/>
+      <c r="AT14" s="91"/>
+      <c r="AU14" s="91"/>
+      <c r="AV14" s="91"/>
+      <c r="AW14" s="91"/>
+      <c r="AX14" s="91"/>
+      <c r="AY14" s="91"/>
       <c r="AZ14" s="77"/>
     </row>
     <row r="15" spans="2:52" x14ac:dyDescent="0.25">
@@ -2261,14 +2261,14 @@
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="15"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="88"/>
       <c r="AA15" s="15"/>
       <c r="AB15" s="15"/>
-      <c r="AC15" s="106"/>
-      <c r="AD15" s="106"/>
-      <c r="AE15" s="105"/>
-      <c r="AF15" s="105"/>
+      <c r="AC15" s="96"/>
+      <c r="AD15" s="96"/>
+      <c r="AE15" s="95"/>
+      <c r="AF15" s="95"/>
       <c r="AG15" s="15"/>
       <c r="AH15" s="15"/>
       <c r="AI15" s="15"/>
@@ -2328,10 +2328,10 @@
       <c r="AD16" s="15"/>
       <c r="AE16" s="15"/>
       <c r="AF16" s="15"/>
-      <c r="AG16" s="105"/>
-      <c r="AH16" s="105"/>
-      <c r="AI16" s="105"/>
-      <c r="AJ16" s="105"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="95"/>
+      <c r="AJ16" s="95"/>
       <c r="AK16" s="16"/>
       <c r="AL16" s="16"/>
       <c r="AM16" s="16"/>
@@ -2388,17 +2388,17 @@
       <c r="AA17" s="15"/>
       <c r="AB17" s="43"/>
       <c r="AC17" s="15"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="98"/>
+      <c r="AD17" s="88"/>
+      <c r="AE17" s="88"/>
       <c r="AF17" s="15"/>
-      <c r="AG17" s="102"/>
+      <c r="AG17" s="92"/>
       <c r="AH17" s="15"/>
       <c r="AI17" s="15"/>
       <c r="AJ17" s="15"/>
-      <c r="AK17" s="105"/>
-      <c r="AL17" s="105"/>
-      <c r="AM17" s="105"/>
-      <c r="AN17" s="105"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="95"/>
+      <c r="AM17" s="95"/>
+      <c r="AN17" s="95"/>
       <c r="AO17" s="16"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
@@ -2448,7 +2448,7 @@
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15"/>
-      <c r="AG18" s="102"/>
+      <c r="AG18" s="92"/>
       <c r="AH18" s="15"/>
       <c r="AI18" s="15"/>
       <c r="AJ18" s="15"/>
@@ -2456,7 +2456,7 @@
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
       <c r="AN18" s="16"/>
-      <c r="AO18" s="102" t="s">
+      <c r="AO18" s="92" t="s">
         <v>24</v>
       </c>
       <c r="AP18" s="16"/>
@@ -2564,14 +2564,14 @@
       <c r="Z20" s="15"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="15"/>
-      <c r="AC20" s="98"/>
+      <c r="AC20" s="88"/>
       <c r="AD20" s="15"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="98"/>
+      <c r="AE20" s="88"/>
+      <c r="AF20" s="88"/>
       <c r="AG20" s="43"/>
       <c r="AH20" s="15"/>
       <c r="AI20" s="15"/>
-      <c r="AJ20" s="98"/>
+      <c r="AJ20" s="88"/>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
       <c r="AM20" s="16"/>
@@ -2624,7 +2624,7 @@
       <c r="AA21" s="15"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15"/>
-      <c r="AD21" s="98"/>
+      <c r="AD21" s="88"/>
       <c r="AE21" s="43"/>
       <c r="AF21" s="15"/>
       <c r="AG21" s="15"/>
@@ -2735,7 +2735,7 @@
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-      <c r="W23" s="99"/>
+      <c r="W23" s="89"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
@@ -2991,7 +2991,7 @@
       <c r="AN27" s="22"/>
       <c r="AO27" s="22"/>
       <c r="AP27" s="22"/>
-      <c r="AQ27" s="103"/>
+      <c r="AQ27" s="93"/>
       <c r="AR27" s="22"/>
       <c r="AS27" s="22"/>
       <c r="AT27" s="22"/>
@@ -3048,7 +3048,7 @@
       <c r="AN28" s="15"/>
       <c r="AO28" s="15"/>
       <c r="AP28" s="15"/>
-      <c r="AQ28" s="102" t="s">
+      <c r="AQ28" s="92" t="s">
         <v>24</v>
       </c>
       <c r="AR28" s="16"/>
@@ -3106,7 +3106,7 @@
       <c r="AN29" s="22"/>
       <c r="AO29" s="22"/>
       <c r="AP29" s="22"/>
-      <c r="AQ29" s="104"/>
+      <c r="AQ29" s="94"/>
       <c r="AR29" s="22"/>
       <c r="AS29" s="22"/>
       <c r="AT29" s="22"/>
@@ -3629,11 +3629,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="M4:P4"/>
-    <mergeCell ref="Q4:T4"/>
-    <mergeCell ref="U4:X4"/>
-    <mergeCell ref="AW4:AZ4"/>
     <mergeCell ref="Q3:AB3"/>
     <mergeCell ref="AC3:AN3"/>
     <mergeCell ref="AO3:AZ3"/>
@@ -3643,6 +3638,11 @@
     <mergeCell ref="AK4:AN4"/>
     <mergeCell ref="AO4:AR4"/>
     <mergeCell ref="AS4:AV4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="Q4:T4"/>
+    <mergeCell ref="U4:X4"/>
+    <mergeCell ref="AW4:AZ4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
@@ -3650,6 +3650,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100104D2C8592D4474F94880268084ADF33" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="d135d1c070796c4c976ae8b3742afbf3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dc157ffa-89df-417c-a5af-b14496f38a84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d336960e61f260b7b850f37502e37734" ns2:_="">
     <xsd:import namespace="dc157ffa-89df-417c-a5af-b14496f38a84"/>
@@ -3781,22 +3796,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A3D76E7-CD46-4355-9B1D-A70A2A104B38}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3813,22 +3831,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ADAFA77-C44E-4145-B33E-4C0DA35AE6B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81E45984-FD63-4A1D-8AA0-E48F278C1B4D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>